--- a/biology/Zoologie/Congre_commun/Congre_commun.xlsx
+++ b/biology/Zoologie/Congre_commun/Congre_commun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conger conger
 Le congre commun (Conger conger), appelé aussi anguille de mer, est une espèce de poissons anguilliformes de la famille des congridés.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Taille maximale : 300 cm.
 Taille commune : 58-200 cm.
@@ -547,7 +561,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Zone marine littorale de l'Atlantique nord-est, du sud de l'Islande (rare) et de la Norvège (rare) jusqu'au Sénégal, mer du Nord (rare), Méditerranée et mer Noire.
 </t>
@@ -578,7 +594,9 @@
           <t>Répartition bathymétrique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">II se trouve sur tout le plateau continental, de la zone de balancement des marées, au bord du talus continental (-200 à −300 m).
 </t>
@@ -609,7 +627,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le congre se rencontre de préférence sur les fonds rocheux et sableux, paramètre qui influence la pigmentation de sa peau. Le juvénile, appelé fouet, vit dans les eaux côtières puis migre vers des eaux plus profondes à l'âge adulte.
 </t>
@@ -640,7 +660,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le congre est un prédateur nocturne vorace se nourrissant de poissons, de crustacés et de céphalopodes, il se cache le jour dans les anfractuosités ou sous les roches. Il se déplace lentement et attaque par surprise. Un seul battement de queue lui suffit pour attraper sa proie. Il peut aussi se nourrir de cadavres. Il avale ses proies d'un seul coup ou les déchiquette grâce à de violents mouvements de la face avant et des mâchoires.
 On peut le trouver dans des eaux claires et limpides à condition que ses proies soient proches[réf. nécessaire].
@@ -672,9 +694,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On sait peu de choses sur sa reproduction, on suppose que les congres matures entreprennent une migration pour rejoindre leurs aires de frai situées entre les Açores et Gibraltar. Là, à 3000 ou 4 000 m de profondeur, les adultes se rassemblent et pondent leurs œufs. Comme les autres espèces de congridés, ils ne se reproduisent qu'une fois au cours de leur vie et meurent après la reproduction. Quand l'individu atteint la maturité sexuelle vers 5 à 15 ans, ses intestins dégénèrent et il cesse de s’alimenter. La femelle peut pondre entre 3 et 8 millions d'œufs[1],[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On sait peu de choses sur sa reproduction, on suppose que les congres matures entreprennent une migration pour rejoindre leurs aires de frai situées entre les Açores et Gibraltar. Là, à 3000 ou 4 000 m de profondeur, les adultes se rassemblent et pondent leurs œufs. Comme les autres espèces de congridés, ils ne se reproduisent qu'une fois au cours de leur vie et meurent après la reproduction. Quand l'individu atteint la maturité sexuelle vers 5 à 15 ans, ses intestins dégénèrent et il cesse de s’alimenter. La femelle peut pondre entre 3 et 8 millions d'œufs,.
 </t>
         </is>
       </c>
@@ -703,7 +727,9 @@
           <t>Risques pour l'homme</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les Murènes (également de l'ordre des Anguilliformes), le congre peut devenir agressif et occasionner de profondes morsures s'il est trop importuné ou blessé. Mais ses attaques restent extrêmement rares : il peut être curieux mais ne représente pas de risque réel.
 </t>
@@ -734,7 +760,9 @@
           <t>Intérêt économique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa chair ferme, un peu grasse, est appréciée dans certaines régions. Le grand nombre d'arêtes de la queue destine cette partie du corps à un apprêt en soupe.
 Le congre se pêche surtout aux palangres et aussi à la chasse sous-marine. Il est capturé également aux nasses et accessoirement au chalut. C'est un poisson recherché en pêche sportive.
@@ -769,8 +797,13 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nom français régionaux
-Manche
+          <t>Nom français régionaux</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manche
 fouet : petit (Fécamp),
 vigret : petit (Port-en-Bessin),
 cougrette : petit (Granville, Cancale), fouette : petit (Cancale),
